--- a/lectures/FoML/.PythonCode/ClassDemo/Jeeves.xlsx
+++ b/lectures/FoML/.PythonCode/ClassDemo/Jeeves.xlsx
@@ -86,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,10 +175,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
@@ -313,7 +314,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -330,13 +331,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
